--- a/data/georgia_census/adjara/xelvachauri/average_wages.xlsx
+++ b/data/georgia_census/adjara/xelvachauri/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F2F226-DE08-4D1F-A95A-C8B98310643A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98BB089D-25F8-4383-9BFD-BA8F27083A44}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7589768-0933-46BF-8A11-B6CC37A44E2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DFDF520-6C7C-4135-A607-EC9CE7F5F6F4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA2DB86E-E679-4496-BEF9-58580434481A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C92434F-A334-490B-91DD-D9D676DADC91}"/>
 </file>